--- a/results/pseudomonas_putida/Muconate_Study/reaction_sensitivity_EX_fru_e1.32.xlsx
+++ b/results/pseudomonas_putida/Muconate_Study/reaction_sensitivity_EX_fru_e1.32.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,171 @@
         <v>864</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>822</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -468,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +664,171 @@
         <v>924</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
